--- a/490_その他/491-3-1_POIコード表.xlsx
+++ b/490_その他/491-3-1_POIコード表.xlsx
@@ -49088,11 +49088,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AA06A8A97B81CB449FCF07970FCC7F2C" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e098a45b3705cfc2493009b57a546a4a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f29c99a9-2f7a-4302-86cb-05f0a42840fb" xmlns:ns3="418539d9-ccaa-4f07-ad3e-d267fe6a0194" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f840fee6fb3897cc9ba6eb64f1070675" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb"/>
-    <xsd:import namespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194"/>
+    <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -49101,19 +49101,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -49124,18 +49123,18 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="12" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="14" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="13" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="15" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c3438c2-774e-4b56-8e53-485ea73e7025" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -49148,60 +49147,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="17" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -49220,7 +49214,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -49346,7 +49340,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C7A4E26-BD2F-4716-86AE-590AF7C06EB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15367D12-6EFA-401F-AB4A-F630A016DA04}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/490_その他/491-3-1_POIコード表.xlsx
+++ b/490_その他/491-3-1_POIコード表.xlsx
@@ -48308,8 +48308,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
     <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
@@ -48333,6 +48333,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -48411,6 +48413,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -48440,6 +48449,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -48555,12 +48575,16 @@
   <documentManagement>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15367D12-6EFA-401F-AB4A-F630A016DA04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04EB0B2-A081-4DBF-834C-F41F8D4F39CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/490_その他/491-3-1_POIコード表.xlsx
+++ b/490_その他/491-3-1_POIコード表.xlsx
@@ -48584,7 +48584,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04EB0B2-A081-4DBF-834C-F41F8D4F39CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF4A687-8024-4926-8FD4-E0C97DE26EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
